--- a/evaluation/results/autoencoder/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="C2">
-        <v>0.06086956521739131</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1147540983606557</v>
+        <v>0.1064638783269962</v>
       </c>
       <c r="F2">
-        <v>0.2447552447552448</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="G2">
-        <v>0.6275862068965518</v>
+        <v>0.6076794657762938</v>
       </c>
       <c r="H2">
-        <v>0.7942750133761369</v>
+        <v>0.7920679507758159</v>
       </c>
       <c r="I2">
         <v>28</v>
       </c>
       <c r="J2">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="K2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1910112359550562</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="D2">
-        <v>0.3207547169811321</v>
+        <v>0.2140468227424749</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.06086956521739131</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1147540983606557</v>
+        <v>0.1064638783269962</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="C4">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="D4">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="E4">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5304347826086957</v>
+        <v>0.5281124497991968</v>
       </c>
       <c r="C5">
-        <v>0.5955056179775281</v>
+        <v>0.5599250936329588</v>
       </c>
       <c r="D5">
-        <v>0.2177544076708939</v>
+        <v>0.1602553505347356</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9532105833204395</v>
+        <v>0.9529791764924467</v>
       </c>
       <c r="C6">
-        <v>0.2313167259786477</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="D6">
-        <v>0.3104913409644535</v>
+        <v>0.2086868183943728</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>432</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3">
